--- a/medicine/Psychotrope/Méthode_de_Kjeldahl/Méthode_de_Kjeldahl.xlsx
+++ b/medicine/Psychotrope/Méthode_de_Kjeldahl/Méthode_de_Kjeldahl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9thode_de_Kjeldahl</t>
+          <t>Méthode_de_Kjeldahl</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La méthode de Kjeldahl est une technique de détermination du taux d'azote dans un échantillon. Elle est applicable pour le dosage de l’azote de différents composés azotés tels les amines et les sels d’ammonium quaternaires. Elle ne permet pas le dosage direct des nitrates, nitrites, nitrosyles, cyanures qui doivent d’abord être réduits en ammoniac.
 Quand l’azote est sous forme organique, on procède d'abord à la minéralisation du composé pour passer à de l’azote minéral. On détruit la molécule organique en l’oxydant à ébullition avec de l'acide sulfurique (H2SO4) concentré, en présence de catalyseur : le carbone s'élimine sous forme de dioxyde de carbone (CO2), l’hydrogène sous forme d'eau et l’azote reste en solution sous forme d'ion ammonium (NH4+).
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9thode_de_Kjeldahl</t>
+          <t>Méthode_de_Kjeldahl</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1883, le chercheur danois Johan Kjeldahl, travaillant sur l'évolution de la teneur en protéine des céréales utilisées dans la fabrication de la bière, a mis au point une méthode pour déterminer l'azote organique.
 La technique a subi un grand nombre de modifications depuis sa 1re publication dans la même année dans une revue allemande de chimie analytique.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9thode_de_Kjeldahl</t>
+          <t>Méthode_de_Kjeldahl</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Principe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La 1re étape est la minéralisation. Son but est de dégrader la matière organique azotée sous la forme de sel d'ammonium. Équation de minéralisation :
               M
@@ -635,8 +651,43 @@
               2
           O
     {\displaystyle {\ce {H+ + OH- -&gt;H2O}}}
-Mode opératoire
-Pour doser les protéines contenues dans un échantillon par la méthode de Kjeldahl, on procède d'abord à la minéralisation. Pour cela, on introduit dans un matras (fiole) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Méthode_de_Kjeldahl</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9thode_de_Kjeldahl</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Principe</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Mode opératoire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour doser les protéines contenues dans un échantillon par la méthode de Kjeldahl, on procède d'abord à la minéralisation. Pour cela, on introduit dans un matras (fiole) :
 la quantité m de l'échantillon ;
 un volume d'acide sulfurique (en général 50 ml) ;
 le catalyseur du sulfate de potassium et du sulfate de cuivre (soit sous la forme de cristaux, soit sous la forme de pastille) ;
@@ -646,17 +697,134 @@
 On laisse refroidir et on introduit avec précaution de l'eau distillée.
 Attention : l'ajout d'eau dans un acide fort, comme ici l'acide sulfurique, peut engendrer une très forte réaction, voire une explosion.
 La fiole contient désormais les atomes d'azote sous la forme de sel d'ammonium (sauf les nitrates et les nitrites).
-Distillation de l'ammoniac
-On place la fiole dans un distillateur. Elle est reliée à une solution d'acide borique saturée, de rouge de méthyle et de bleu de bromothymol (en milieu professionnel on utilise un appareil de distillation à entraînement à la vapeur, le dosage se réalise généralement par pH-métrie).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Méthode_de_Kjeldahl</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9thode_de_Kjeldahl</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Principe</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mode opératoire</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Distillation de l'ammoniac</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On place la fiole dans un distillateur. Elle est reliée à une solution d'acide borique saturée, de rouge de méthyle et de bleu de bromothymol (en milieu professionnel on utilise un appareil de distillation à entraînement à la vapeur, le dosage se réalise généralement par pH-métrie).
 Rajouter de la soude concentrée en excès tout en chauffant légèrement la fiole afin de faire virer le pH en milieu basique, ce changement de pH va transformer les sels d'ammonium en ammoniac qui va « s'évaporer ». 
 L'ammoniac va passer par un réfrigérant qui va entraîner son retour sous sa forme liquide puis va couler dans l'acide borique (dosage direct) ou dans de l'acide fort en excès (dosage indirect) qui va l'emprisonner (voir principe).
-Dosage direct de l'ammoniac
-On effectue un dosage acido-basique direct ; il existe une méthode indirecte : on remplace l'acide borique par de l'acide sulfurique en excès et on dose après la distillation cet excès d'acide.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Méthode_de_Kjeldahl</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9thode_de_Kjeldahl</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Principe</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Mode opératoire</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Dosage direct de l'ammoniac</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On effectue un dosage acido-basique direct ; il existe une méthode indirecte : on remplace l'acide borique par de l'acide sulfurique en excès et on dose après la distillation cet excès d'acide.
 L'acide borique n'a aucun effet sur le pH (acide faible).
 Doser l'ammoniac par une solution titrée d'acide sulfurique ou d'acide chlorhydrique. L'équivalence est marquée par une coloration rose due au rouge de méthyle.
 Par précaution, retirer la solution avant de stopper le chauffage pour éviter tout siphonnage.
-Calcul à partir d'un dosage direct
-Exemple pour l'acide chlorhydrique (attention : l'acide sulfurique est un diacide).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Méthode_de_Kjeldahl</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9thode_de_Kjeldahl</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Principe</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mode opératoire</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Calcul à partir d'un dosage direct</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Exemple pour l'acide chlorhydrique (attention : l'acide sulfurique est un diacide).
 Recherche du résultat en g% (m/V) :
 1 mol d'acide réagit avec 1 mol d'ammoniaque
 donc on obtient l'égalité suivante :
@@ -677,36 +845,76 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>M%C3%A9thode_de_Kjeldahl</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Méthode_de_Kjeldahl</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Psychotrope/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/M%C3%A9thode_de_Kjeldahl</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Exemple : dosage de l'azote total du lait</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Le lait contient entre 32 et 35 g/l de matière organique azotée dont 95 % de l'azote se trouve dans les protéines et les 5 % restant dans des acides aminés libres.
-Mode opératoire
-Minéralisation
-Pour doser les protéines contenues dans du lait par cette méthode, on procède d'abord à la minéralisation. Pour cela introduire dans une fiole :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Méthode_de_Kjeldahl</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9thode_de_Kjeldahl</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Exemple : dosage de l'azote total du lait</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Mode opératoire</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Minéralisation</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour doser les protéines contenues dans du lait par cette méthode, on procède d'abord à la minéralisation. Pour cela introduire dans une fiole :
 2 ml de lait exactement mesuré ;
 15 à 20 ml d'acide sulfurique concentré ;
 6 g de sulfate de potassium ;
@@ -714,8 +922,47 @@
 quelques grains de pierre ponce.
 On porte à ébullition. Puis, à partir de l'éclaircissement de la solution, on prolonge l'ébullition pendant trois heures.
 On laisse refroidir et on introduit avec précaution de 30 à 50 ml d'eau distillée.
-Récupération de l'ammoniac
-On réalise un montage de distillation :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Méthode_de_Kjeldahl</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9thode_de_Kjeldahl</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Exemple : dosage de l'azote total du lait</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Mode opératoire</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Récupération de l'ammoniac</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On réalise un montage de distillation :
 dans le ballon, on introduit :
 le contenu de la fiole (voir ci-dessus) soigneusement rincé (pour en extraire tous les composés azotés ; on complète à 250 ml avec de l'eau distillée ;
 quelques gouttes de phénolphtaléine ;
@@ -724,8 +971,47 @@
 On chauffe modérément le ballon.
 On dose l'ammoniac, au fur et à mesure de son dégagement, par une solution titrée d'acide sulfurique à 0,05 mol/l. 
 Le dosage est terminé dès que la coloration reste stable pendant environ 5 min.
-Calculs
-x représente l'avancement de la réaction. Dans la première réaction, l'ammoniac est mis en présence d'un excès d'acide où une partie n' de l'acide réagit. On fait réagir le restant de l'acide n'' avec la soude. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Méthode_de_Kjeldahl</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9thode_de_Kjeldahl</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Exemple : dosage de l'azote total du lait</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Mode opératoire</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Calculs</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">x représente l'avancement de la réaction. Dans la première réaction, l'ammoniac est mis en présence d'un excès d'acide où une partie n' de l'acide réagit. On fait réagir le restant de l'acide n'' avec la soude. 
             n
               H
                 3
